--- a/update-input/ig/StructureDefinition-oncology-patient.xlsx
+++ b/update-input/ig/StructureDefinition-oncology-patient.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ltsi.univ-rennes.fr/StructureDefinition/oncology-patient</t>
+    <t>http://ltsi.univ-rennes.fr/StructureDefinition/OncologyPatient</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T09:27:05+00:00</t>
+    <t>2024-03-25T09:30:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -876,7 +876,7 @@
 </t>
   </si>
   <si>
-    <t>A name associated with the patient</t>
+    <t>Name(s) of the patient</t>
   </si>
   <si>
     <t>A name associated with the individual.</t>
@@ -5049,13 +5049,13 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>80</v>
@@ -5415,7 +5415,7 @@
         <v>90</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>91</v>
@@ -5659,7 +5659,7 @@
         <v>90</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>80</v>
@@ -5779,7 +5779,7 @@
         <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>80</v>
